--- a/Trabajo/software/results_branch/results_cec2017_10.xlsx
+++ b/Trabajo/software/results_branch/results_cec2017_10.xlsx
@@ -533,94 +533,94 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30078353000</v>
+        <v>53236128000</v>
       </c>
       <c r="C2" t="n">
-        <v>6.6915582586911e+19</v>
+        <v>1.627714707169e+21</v>
       </c>
       <c r="D2" t="n">
-        <v>39539648.614</v>
+        <v>30528086674.377</v>
       </c>
       <c r="E2" t="n">
-        <v>7355.3902</v>
+        <v>18966.8746</v>
       </c>
       <c r="F2" t="n">
-        <v>254.35306</v>
+        <v>254.34761</v>
       </c>
       <c r="G2" t="n">
-        <v>99.13696100000001</v>
+        <v>100.321492</v>
       </c>
       <c r="H2" t="n">
-        <v>1138.08624</v>
+        <v>1146.88792</v>
       </c>
       <c r="I2" t="n">
-        <v>176.13816</v>
+        <v>175.7475</v>
       </c>
       <c r="J2" t="n">
-        <v>5493.4467</v>
+        <v>5077.407300000001</v>
       </c>
       <c r="K2" t="n">
-        <v>1724.7391</v>
+        <v>1721.8539</v>
       </c>
       <c r="L2" t="n">
-        <v>30727195.51260001</v>
+        <v>593154846.3199999</v>
       </c>
       <c r="M2" t="n">
-        <v>4610647237.7</v>
+        <v>12120057000</v>
       </c>
       <c r="N2" t="n">
-        <v>1707764757.62</v>
+        <v>7496577500</v>
       </c>
       <c r="O2" t="n">
-        <v>202796221.54382</v>
+        <v>1561808417.7754</v>
       </c>
       <c r="P2" t="n">
-        <v>599991347.1991</v>
+        <v>5480871371.690001</v>
       </c>
       <c r="Q2" t="n">
-        <v>3151.417</v>
+        <v>18035.11248</v>
       </c>
       <c r="R2" t="n">
-        <v>1068.13321</v>
+        <v>108688.01937</v>
       </c>
       <c r="S2" t="n">
-        <v>3012613208.421</v>
+        <v>13012181280</v>
       </c>
       <c r="T2" t="n">
-        <v>3610384315.80765</v>
+        <v>9609925250.309799</v>
       </c>
       <c r="U2" t="n">
-        <v>592.2086</v>
+        <v>643.79778</v>
       </c>
       <c r="V2" t="n">
-        <v>421.93742</v>
+        <v>446.5013200000001</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.03884</v>
+        <v>2256.56233</v>
       </c>
       <c r="X2" t="n">
-        <v>933.2486999999999</v>
+        <v>967.2616399999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>833.2408599999999</v>
+        <v>1140.51354</v>
       </c>
       <c r="Z2" t="n">
-        <v>2412.1813</v>
+        <v>6022.114</v>
       </c>
       <c r="AA2" t="n">
-        <v>2625.9698</v>
+        <v>3194.4698</v>
       </c>
       <c r="AB2" t="n">
-        <v>1197.16971</v>
+        <v>2273.72995</v>
       </c>
       <c r="AC2" t="n">
-        <v>1456.81848</v>
+        <v>2427.5118</v>
       </c>
       <c r="AD2" t="n">
-        <v>38323.31398</v>
+        <v>1388279.20023</v>
       </c>
       <c r="AE2" t="n">
-        <v>443261230</v>
+        <v>1819616710</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -634,94 +634,94 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>28307652000</v>
+        <v>43148849000</v>
       </c>
       <c r="C3" t="n">
-        <v>6.685982199691101e+19</v>
+        <v>1.626838562169e+21</v>
       </c>
       <c r="D3" t="n">
-        <v>39522083.939</v>
+        <v>15631774927.768</v>
       </c>
       <c r="E3" t="n">
-        <v>6682.46675</v>
+        <v>9038.176100000001</v>
       </c>
       <c r="F3" t="n">
-        <v>254.02719</v>
+        <v>254.2326</v>
       </c>
       <c r="G3" t="n">
-        <v>97.572568</v>
+        <v>99.58936200000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1134.97183</v>
+        <v>1145.64739</v>
       </c>
       <c r="I3" t="n">
-        <v>175.89127</v>
+        <v>175.58802</v>
       </c>
       <c r="J3" t="n">
-        <v>5205.3107</v>
+        <v>4862.341</v>
       </c>
       <c r="K3" t="n">
-        <v>1712.3611</v>
+        <v>1715.8594</v>
       </c>
       <c r="L3" t="n">
-        <v>21538560.91010001</v>
+        <v>56752224.52</v>
       </c>
       <c r="M3" t="n">
-        <v>4183811425.3</v>
+        <v>4490046642.6</v>
       </c>
       <c r="N3" t="n">
-        <v>1457375175.851</v>
+        <v>2370216125.907</v>
       </c>
       <c r="O3" t="n">
-        <v>162394970.45778</v>
+        <v>513689972.6204201</v>
       </c>
       <c r="P3" t="n">
-        <v>438333199.3872001</v>
+        <v>534121236.9041001</v>
       </c>
       <c r="Q3" t="n">
-        <v>2546.489579999999</v>
+        <v>2317.23235</v>
       </c>
       <c r="R3" t="n">
-        <v>793.4955200000001</v>
+        <v>9649.530199999999</v>
       </c>
       <c r="S3" t="n">
-        <v>2536311588.421</v>
+        <v>5670504590</v>
       </c>
       <c r="T3" t="n">
-        <v>3336548044.02604</v>
+        <v>2468623921.2588</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4500499999999</v>
+        <v>641.7108099999999</v>
       </c>
       <c r="V3" t="n">
-        <v>416.23536</v>
+        <v>426.01706</v>
       </c>
       <c r="W3" t="n">
-        <v>2181.15034</v>
+        <v>2234.24031</v>
       </c>
       <c r="X3" t="n">
-        <v>932.2668200000001</v>
+        <v>964.5027699999998</v>
       </c>
       <c r="Y3" t="n">
-        <v>796.8950499999999</v>
+        <v>829.06357</v>
       </c>
       <c r="Z3" t="n">
-        <v>2205.80998</v>
+        <v>5088.8426</v>
       </c>
       <c r="AA3" t="n">
-        <v>2586.0299</v>
+        <v>2963.4808</v>
       </c>
       <c r="AB3" t="n">
-        <v>1147.95579</v>
+        <v>1319.12656</v>
       </c>
       <c r="AC3" t="n">
-        <v>1395.75622</v>
+        <v>1762.9569</v>
       </c>
       <c r="AD3" t="n">
-        <v>23236.35538</v>
+        <v>3667.577749999999</v>
       </c>
       <c r="AE3" t="n">
-        <v>380927234</v>
+        <v>476381885.2</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -735,94 +735,94 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>28307652000</v>
+        <v>37839496000</v>
       </c>
       <c r="C4" t="n">
-        <v>6.685982199691101e+19</v>
+        <v>1.626838562169e+21</v>
       </c>
       <c r="D4" t="n">
-        <v>39521253.1781</v>
+        <v>1273966954.02</v>
       </c>
       <c r="E4" t="n">
-        <v>6682.46675</v>
+        <v>6100.688540000001</v>
       </c>
       <c r="F4" t="n">
-        <v>254.01741</v>
+        <v>254.15977</v>
       </c>
       <c r="G4" t="n">
-        <v>97.20047699999998</v>
+        <v>99.145804</v>
       </c>
       <c r="H4" t="n">
-        <v>1134.28742</v>
+        <v>1144.66499</v>
       </c>
       <c r="I4" t="n">
-        <v>175.84933</v>
+        <v>175.51417</v>
       </c>
       <c r="J4" t="n">
-        <v>5176.250199999999</v>
+        <v>4750.491100000001</v>
       </c>
       <c r="K4" t="n">
-        <v>1704.3739</v>
+        <v>1712.6549</v>
       </c>
       <c r="L4" t="n">
-        <v>21538560.91010001</v>
+        <v>54459987.9927</v>
       </c>
       <c r="M4" t="n">
-        <v>4183803768.1</v>
+        <v>3538656805.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1457375175.851</v>
+        <v>1873991400.5631</v>
       </c>
       <c r="O4" t="n">
-        <v>162394842.6499</v>
+        <v>484111800.15209</v>
       </c>
       <c r="P4" t="n">
-        <v>438331382.2259001</v>
+        <v>184989260.6976</v>
       </c>
       <c r="Q4" t="n">
-        <v>2514.94966</v>
+        <v>1055.69447</v>
       </c>
       <c r="R4" t="n">
-        <v>791.6771100000001</v>
+        <v>6225.701289999999</v>
       </c>
       <c r="S4" t="n">
-        <v>2536311453.454</v>
+        <v>4100432170</v>
       </c>
       <c r="T4" t="n">
-        <v>3336540404.85584</v>
+        <v>2303679299.7146</v>
       </c>
       <c r="U4" t="n">
-        <v>585.71664</v>
+        <v>640.37981</v>
       </c>
       <c r="V4" t="n">
-        <v>414.94819</v>
+        <v>423.71926</v>
       </c>
       <c r="W4" t="n">
-        <v>2179.43073</v>
+        <v>2230.28548</v>
       </c>
       <c r="X4" t="n">
-        <v>932.0109400000001</v>
+        <v>963.44217</v>
       </c>
       <c r="Y4" t="n">
-        <v>795.0243700000001</v>
+        <v>816.27935</v>
       </c>
       <c r="Z4" t="n">
-        <v>2205.80998</v>
+        <v>4097.098100000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>2584.6568</v>
+        <v>2818.7996</v>
       </c>
       <c r="AB4" t="n">
-        <v>1143.46478</v>
+        <v>1287.80254</v>
       </c>
       <c r="AC4" t="n">
-        <v>1395.75622</v>
+        <v>1537.7616</v>
       </c>
       <c r="AD4" t="n">
-        <v>23221.35014</v>
+        <v>3587.50863</v>
       </c>
       <c r="AE4" t="n">
-        <v>380927234</v>
+        <v>265517212.6</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -836,94 +836,94 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>28307652000</v>
+        <v>33668207000</v>
       </c>
       <c r="C5" t="n">
-        <v>2.291439837727449e+17</v>
+        <v>1.108023457624319e+20</v>
       </c>
       <c r="D5" t="n">
-        <v>30754.3537</v>
+        <v>1266065356.131</v>
       </c>
       <c r="E5" t="n">
-        <v>6682.46675</v>
+        <v>5703.17914</v>
       </c>
       <c r="F5" t="n">
-        <v>253.92454</v>
+        <v>254.13051</v>
       </c>
       <c r="G5" t="n">
-        <v>96.97288</v>
+        <v>98.778402</v>
       </c>
       <c r="H5" t="n">
-        <v>1134.07562</v>
+        <v>1144.19889</v>
       </c>
       <c r="I5" t="n">
-        <v>175.78544</v>
+        <v>175.47955</v>
       </c>
       <c r="J5" t="n">
-        <v>5054.253900000001</v>
+        <v>4661.5322</v>
       </c>
       <c r="K5" t="n">
-        <v>1702.9259</v>
+        <v>1710.4365</v>
       </c>
       <c r="L5" t="n">
-        <v>21538560.91010001</v>
+        <v>9142986.562499998</v>
       </c>
       <c r="M5" t="n">
-        <v>3869056268.1</v>
+        <v>2745638271.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1457375175.851</v>
+        <v>381877350.8065</v>
       </c>
       <c r="O5" t="n">
-        <v>162394761.85569</v>
+        <v>4445135.7797</v>
       </c>
       <c r="P5" t="n">
-        <v>438330313.4011</v>
+        <v>116508264.1766</v>
       </c>
       <c r="Q5" t="n">
-        <v>2499.71815</v>
+        <v>980.0105100000001</v>
       </c>
       <c r="R5" t="n">
-        <v>790.5488800000001</v>
+        <v>760.92725</v>
       </c>
       <c r="S5" t="n">
-        <v>2536310732.195</v>
+        <v>3926554050</v>
       </c>
       <c r="T5" t="n">
-        <v>2801380899.82019</v>
+        <v>539574811.4918001</v>
       </c>
       <c r="U5" t="n">
-        <v>584.9578</v>
+        <v>574.4742699999999</v>
       </c>
       <c r="V5" t="n">
-        <v>414.9429</v>
+        <v>420.45302</v>
       </c>
       <c r="W5" t="n">
-        <v>2178.52913</v>
+        <v>2226.92335</v>
       </c>
       <c r="X5" t="n">
-        <v>931.37085</v>
+        <v>962.6855400000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>795.0243700000001</v>
+        <v>703.4286199999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>2205.80998</v>
+        <v>3053.1193</v>
       </c>
       <c r="AA5" t="n">
-        <v>2584.0634</v>
+        <v>2621.178</v>
       </c>
       <c r="AB5" t="n">
-        <v>1127.01618</v>
+        <v>1243.56302</v>
       </c>
       <c r="AC5" t="n">
-        <v>1353.34352</v>
+        <v>1226.72448</v>
       </c>
       <c r="AD5" t="n">
-        <v>23207.7549</v>
+        <v>2912.72553</v>
       </c>
       <c r="AE5" t="n">
-        <v>380927234</v>
+        <v>165159414.6</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
@@ -937,94 +937,94 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>12607266400</v>
+        <v>21010794700</v>
       </c>
       <c r="C6" t="n">
-        <v>53232693555790</v>
+        <v>8.998716973243189e+19</v>
       </c>
       <c r="D6" t="n">
-        <v>19489.4902</v>
+        <v>39349.195</v>
       </c>
       <c r="E6" t="n">
-        <v>1820.687519999999</v>
+        <v>2285.91104</v>
       </c>
       <c r="F6" t="n">
-        <v>253.86896</v>
+        <v>187.635073</v>
       </c>
       <c r="G6" t="n">
-        <v>96.78308100000001</v>
+        <v>91.33134500000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1122.33269</v>
+        <v>784.8789899999999</v>
       </c>
       <c r="I6" t="n">
-        <v>175.71432</v>
+        <v>131.415701</v>
       </c>
       <c r="J6" t="n">
-        <v>5009.2924</v>
+        <v>3707.7656</v>
       </c>
       <c r="K6" t="n">
-        <v>1702.8901</v>
+        <v>1573.7563</v>
       </c>
       <c r="L6" t="n">
-        <v>4118.44191</v>
+        <v>24419.2254</v>
       </c>
       <c r="M6" t="n">
-        <v>919907856.3</v>
+        <v>2558729791.5</v>
       </c>
       <c r="N6" t="n">
-        <v>13531.89589</v>
+        <v>295404946.3054</v>
       </c>
       <c r="O6" t="n">
-        <v>6799.544350000001</v>
+        <v>4649.85432</v>
       </c>
       <c r="P6" t="n">
-        <v>53026.1948</v>
+        <v>57286423.41860001</v>
       </c>
       <c r="Q6" t="n">
-        <v>827.2783999999999</v>
+        <v>830.7022899999999</v>
       </c>
       <c r="R6" t="n">
-        <v>448.0331499999999</v>
+        <v>541.74479</v>
       </c>
       <c r="S6" t="n">
-        <v>230327798.2245999</v>
+        <v>1238197384.657</v>
       </c>
       <c r="T6" t="n">
-        <v>18283.49701</v>
+        <v>13577679.6688</v>
       </c>
       <c r="U6" t="n">
-        <v>512.29439</v>
+        <v>442.8005800000001</v>
       </c>
       <c r="V6" t="n">
-        <v>367.42905</v>
+        <v>338.83447</v>
       </c>
       <c r="W6" t="n">
-        <v>2176.91453</v>
+        <v>1736.54698</v>
       </c>
       <c r="X6" t="n">
-        <v>912.9156499999999</v>
+        <v>790.20443</v>
       </c>
       <c r="Y6" t="n">
-        <v>557.64039</v>
+        <v>667.5228500000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>1284.7349</v>
+        <v>2265.08899</v>
       </c>
       <c r="AA6" t="n">
-        <v>2547.803</v>
+        <v>2444.895</v>
       </c>
       <c r="AB6" t="n">
-        <v>915.1305900000001</v>
+        <v>944.80891</v>
       </c>
       <c r="AC6" t="n">
-        <v>844.5619899999999</v>
+        <v>1170.40045</v>
       </c>
       <c r="AD6" t="n">
-        <v>795.4751799999999</v>
+        <v>1133.05943</v>
       </c>
       <c r="AE6" t="n">
-        <v>81158089.39</v>
+        <v>85933321.2</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1038,94 +1038,94 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>6529917300</v>
+        <v>17052399600</v>
       </c>
       <c r="C7" t="n">
-        <v>493267892235</v>
+        <v>4.672890586676796e+17</v>
       </c>
       <c r="D7" t="n">
-        <v>12959.702</v>
+        <v>25876.471</v>
       </c>
       <c r="E7" t="n">
-        <v>725.6923149999999</v>
+        <v>1552.44295</v>
       </c>
       <c r="F7" t="n">
-        <v>240.924333</v>
+        <v>138.017457</v>
       </c>
       <c r="G7" t="n">
-        <v>89.29944499999999</v>
+        <v>80.911293</v>
       </c>
       <c r="H7" t="n">
-        <v>1026.22474</v>
+        <v>655.1317299999998</v>
       </c>
       <c r="I7" t="n">
-        <v>170.72202</v>
+        <v>104.250476</v>
       </c>
       <c r="J7" t="n">
-        <v>3631.0616</v>
+        <v>2776.0978</v>
       </c>
       <c r="K7" t="n">
-        <v>1388.1994</v>
+        <v>1393.8767</v>
       </c>
       <c r="L7" t="n">
-        <v>2151.809262</v>
+        <v>7401.743799999999</v>
       </c>
       <c r="M7" t="n">
-        <v>179441117.21</v>
+        <v>1443991525.348</v>
       </c>
       <c r="N7" t="n">
-        <v>10541.09114</v>
+        <v>48270679.2845</v>
       </c>
       <c r="O7" t="n">
-        <v>4001.96295</v>
+        <v>1139.645111</v>
       </c>
       <c r="P7" t="n">
-        <v>52198.8217</v>
+        <v>52781.6585</v>
       </c>
       <c r="Q7" t="n">
-        <v>797.7587799999999</v>
+        <v>771.2004000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>379.484803</v>
+        <v>353.108403</v>
       </c>
       <c r="S7" t="n">
-        <v>717166.2527999999</v>
+        <v>280946457.6143</v>
       </c>
       <c r="T7" t="n">
-        <v>17833.74867</v>
+        <v>1592153.4933</v>
       </c>
       <c r="U7" t="n">
-        <v>490.27192</v>
+        <v>360.75519</v>
       </c>
       <c r="V7" t="n">
-        <v>356.82084</v>
+        <v>321.0853599999999</v>
       </c>
       <c r="W7" t="n">
-        <v>2044.31493</v>
+        <v>1681.08218</v>
       </c>
       <c r="X7" t="n">
-        <v>785.47596</v>
+        <v>568.0201700000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.04491</v>
+        <v>546.07061</v>
       </c>
       <c r="Z7" t="n">
-        <v>961.4631699999998</v>
+        <v>1718.36499</v>
       </c>
       <c r="AA7" t="n">
-        <v>2119.71635</v>
+        <v>2303.161</v>
       </c>
       <c r="AB7" t="n">
-        <v>815.6416400000001</v>
+        <v>752.9918599999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>618.4205799999999</v>
+        <v>1038.4935</v>
       </c>
       <c r="AD7" t="n">
-        <v>788.49619</v>
+        <v>787.73073</v>
       </c>
       <c r="AE7" t="n">
-        <v>18004351.51</v>
+        <v>63514199.3</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1139,94 +1139,94 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>6529917300</v>
+        <v>12212309600</v>
       </c>
       <c r="C8" t="n">
-        <v>492263686243.5</v>
+        <v>1.00844282519795e+16</v>
       </c>
       <c r="D8" t="n">
-        <v>12959.702</v>
+        <v>22920.534</v>
       </c>
       <c r="E8" t="n">
-        <v>334.708094</v>
+        <v>1157.94498</v>
       </c>
       <c r="F8" t="n">
-        <v>228.036238</v>
+        <v>128.435293</v>
       </c>
       <c r="G8" t="n">
-        <v>85.34571200000001</v>
+        <v>75.98894900000001</v>
       </c>
       <c r="H8" t="n">
-        <v>762.3280999999999</v>
+        <v>590.24325</v>
       </c>
       <c r="I8" t="n">
-        <v>170.70167</v>
+        <v>96.19246799999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3073.9796</v>
+        <v>2441.3601</v>
       </c>
       <c r="K8" t="n">
-        <v>1306.9967</v>
+        <v>1174.52998</v>
       </c>
       <c r="L8" t="n">
-        <v>752.1637619999999</v>
+        <v>2958.20609</v>
       </c>
       <c r="M8" t="n">
-        <v>175612119.21</v>
+        <v>1228098359.737</v>
       </c>
       <c r="N8" t="n">
-        <v>8989.278900000001</v>
+        <v>10116297.4221</v>
       </c>
       <c r="O8" t="n">
-        <v>1272.70875</v>
+        <v>714.2013210000001</v>
       </c>
       <c r="P8" t="n">
-        <v>21865.5015</v>
+        <v>28802.51922999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>731.6847300000001</v>
+        <v>598.7242600000002</v>
       </c>
       <c r="R8" t="n">
-        <v>307.221412</v>
+        <v>287.646433</v>
       </c>
       <c r="S8" t="n">
-        <v>15697.28262</v>
+        <v>111183161.7167</v>
       </c>
       <c r="T8" t="n">
-        <v>14179.41367</v>
+        <v>13967.26248</v>
       </c>
       <c r="U8" t="n">
-        <v>454.09054</v>
+        <v>323.22115</v>
       </c>
       <c r="V8" t="n">
-        <v>353.3263699999999</v>
+        <v>293.39059</v>
       </c>
       <c r="W8" t="n">
-        <v>1551.20444</v>
+        <v>1501.56998</v>
       </c>
       <c r="X8" t="n">
-        <v>683.54485</v>
+        <v>567.9345300000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.2018400000001</v>
+        <v>525.6180900000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>961.4631699999998</v>
+        <v>1350.6475</v>
       </c>
       <c r="AA8" t="n">
-        <v>1844.90029</v>
+        <v>1951.20615</v>
       </c>
       <c r="AB8" t="n">
-        <v>646.9409000000001</v>
+        <v>704.44055</v>
       </c>
       <c r="AC8" t="n">
-        <v>593.28954</v>
+        <v>942.5463399999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>686.93013</v>
+        <v>723.42778</v>
       </c>
       <c r="AE8" t="n">
-        <v>13391496.4</v>
+        <v>31262530.9</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1240,94 +1240,94 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>6483021700</v>
+        <v>11620979000</v>
       </c>
       <c r="C9" t="n">
-        <v>492263686243.5</v>
+        <v>2221156388979500</v>
       </c>
       <c r="D9" t="n">
-        <v>9839.3079</v>
+        <v>19279.527</v>
       </c>
       <c r="E9" t="n">
-        <v>334.708094</v>
+        <v>1088.76031</v>
       </c>
       <c r="F9" t="n">
-        <v>227.992548</v>
+        <v>126.512913</v>
       </c>
       <c r="G9" t="n">
-        <v>77.38074100000001</v>
+        <v>75.91629200000003</v>
       </c>
       <c r="H9" t="n">
-        <v>731.34209</v>
+        <v>589.9313999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>170.67731</v>
+        <v>87.266734</v>
       </c>
       <c r="J9" t="n">
-        <v>2806.9758</v>
+        <v>1934.0647</v>
       </c>
       <c r="K9" t="n">
-        <v>1251.975</v>
+        <v>1160.3315</v>
       </c>
       <c r="L9" t="n">
-        <v>275.8600519999999</v>
+        <v>2854.39147</v>
       </c>
       <c r="M9" t="n">
-        <v>20354366.61</v>
+        <v>788287669.737</v>
       </c>
       <c r="N9" t="n">
-        <v>4926.2696</v>
+        <v>10114698.3171</v>
       </c>
       <c r="O9" t="n">
-        <v>1090.43844</v>
+        <v>364.807175</v>
       </c>
       <c r="P9" t="n">
-        <v>20901.6395</v>
+        <v>11428.41163</v>
       </c>
       <c r="Q9" t="n">
-        <v>642.9588199999999</v>
+        <v>555.59113</v>
       </c>
       <c r="R9" t="n">
-        <v>289.029892</v>
+        <v>253.708857</v>
       </c>
       <c r="S9" t="n">
-        <v>7402.784119999999</v>
+        <v>54361889.93799999</v>
       </c>
       <c r="T9" t="n">
-        <v>8827.992369999998</v>
+        <v>9113.22948</v>
       </c>
       <c r="U9" t="n">
-        <v>435.08606</v>
+        <v>320.58702</v>
       </c>
       <c r="V9" t="n">
-        <v>353.3053</v>
+        <v>293.36829</v>
       </c>
       <c r="W9" t="n">
-        <v>1293.95234</v>
+        <v>1463.40348</v>
       </c>
       <c r="X9" t="n">
-        <v>682.89002</v>
+        <v>519.8413</v>
       </c>
       <c r="Y9" t="n">
-        <v>339.92482</v>
+        <v>501.6568599999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>913.1366699999999</v>
+        <v>1254.37155</v>
       </c>
       <c r="AA9" t="n">
-        <v>1525.34319</v>
+        <v>1948.97263</v>
       </c>
       <c r="AB9" t="n">
-        <v>588.29096</v>
+        <v>653.937</v>
       </c>
       <c r="AC9" t="n">
-        <v>557.9632199999999</v>
+        <v>937.5337400000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>645.16675</v>
+        <v>638.83062</v>
       </c>
       <c r="AE9" t="n">
-        <v>4162571.69</v>
+        <v>20158655.21</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
@@ -1341,94 +1341,94 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>5497824600</v>
+        <v>10423341900</v>
       </c>
       <c r="C10" t="n">
-        <v>438690840522.3</v>
+        <v>1234277288979500</v>
       </c>
       <c r="D10" t="n">
-        <v>9830.933800000001</v>
+        <v>17401.2898</v>
       </c>
       <c r="E10" t="n">
-        <v>329.979184</v>
+        <v>1088.64671</v>
       </c>
       <c r="F10" t="n">
-        <v>227.980802</v>
+        <v>117.758886</v>
       </c>
       <c r="G10" t="n">
-        <v>74.01543599999999</v>
+        <v>73.868559</v>
       </c>
       <c r="H10" t="n">
-        <v>636.29322</v>
+        <v>509.49747</v>
       </c>
       <c r="I10" t="n">
-        <v>170.66116</v>
+        <v>77.429199</v>
       </c>
       <c r="J10" t="n">
-        <v>2405.232</v>
+        <v>1710.1524</v>
       </c>
       <c r="K10" t="n">
-        <v>1235.3088</v>
+        <v>1137.4178</v>
       </c>
       <c r="L10" t="n">
-        <v>235.4360159999999</v>
+        <v>1831.439956</v>
       </c>
       <c r="M10" t="n">
-        <v>13092205.91</v>
+        <v>487350049.737</v>
       </c>
       <c r="N10" t="n">
-        <v>4627.336399999999</v>
+        <v>10114233.2438</v>
       </c>
       <c r="O10" t="n">
-        <v>479.4448420000001</v>
+        <v>242.317135</v>
       </c>
       <c r="P10" t="n">
-        <v>17636.7753</v>
+        <v>8983.307129999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>584.76713</v>
+        <v>553.61611</v>
       </c>
       <c r="R10" t="n">
-        <v>232.119715</v>
+        <v>216.306291</v>
       </c>
       <c r="S10" t="n">
-        <v>6321.81853</v>
+        <v>54360628.45409999</v>
       </c>
       <c r="T10" t="n">
-        <v>5547.03087</v>
+        <v>8924.24194</v>
       </c>
       <c r="U10" t="n">
-        <v>386.44101</v>
+        <v>299.4151600000001</v>
       </c>
       <c r="V10" t="n">
-        <v>350.07798</v>
+        <v>293.36829</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.79674</v>
+        <v>1341.33598</v>
       </c>
       <c r="X10" t="n">
-        <v>602.7887899999998</v>
+        <v>519.82911</v>
       </c>
       <c r="Y10" t="n">
-        <v>300.7798100000001</v>
+        <v>488.3236900000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>730.5035099999999</v>
+        <v>1248.31045</v>
       </c>
       <c r="AA10" t="n">
-        <v>1241.19775</v>
+        <v>1769.56823</v>
       </c>
       <c r="AB10" t="n">
-        <v>536.78808</v>
+        <v>633.94885</v>
       </c>
       <c r="AC10" t="n">
-        <v>556.65795</v>
+        <v>896.24292</v>
       </c>
       <c r="AD10" t="n">
-        <v>623.1055699999999</v>
+        <v>579.86934</v>
       </c>
       <c r="AE10" t="n">
-        <v>2303006.49</v>
+        <v>17623915.91</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -1442,94 +1442,94 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>5497824600</v>
+        <v>9728390600</v>
       </c>
       <c r="C11" t="n">
-        <v>437599533074.3</v>
+        <v>554730763669500</v>
       </c>
       <c r="D11" t="n">
-        <v>9818.4126</v>
+        <v>17083.6938</v>
       </c>
       <c r="E11" t="n">
-        <v>245.793094</v>
+        <v>1046.03811</v>
       </c>
       <c r="F11" t="n">
-        <v>227.980802</v>
+        <v>117.756067</v>
       </c>
       <c r="G11" t="n">
-        <v>68.218918</v>
+        <v>71.57521800000002</v>
       </c>
       <c r="H11" t="n">
-        <v>609.2176400000001</v>
+        <v>502.7744299999999</v>
       </c>
       <c r="I11" t="n">
-        <v>170.65877</v>
+        <v>75.64406399999999</v>
       </c>
       <c r="J11" t="n">
-        <v>2242.6131</v>
+        <v>1624.2237</v>
       </c>
       <c r="K11" t="n">
-        <v>1169.0287</v>
+        <v>1137.4178</v>
       </c>
       <c r="L11" t="n">
-        <v>204.440845</v>
+        <v>1539.494406</v>
       </c>
       <c r="M11" t="n">
-        <v>12980471.21</v>
+        <v>327624113.737</v>
       </c>
       <c r="N11" t="n">
-        <v>4496.620199999999</v>
+        <v>45774.5138</v>
       </c>
       <c r="O11" t="n">
-        <v>409.212992</v>
+        <v>237.569995</v>
       </c>
       <c r="P11" t="n">
-        <v>13427.61812</v>
+        <v>6546.99663</v>
       </c>
       <c r="Q11" t="n">
-        <v>489.9939499999999</v>
+        <v>528.65401</v>
       </c>
       <c r="R11" t="n">
-        <v>208.623867</v>
+        <v>212.526871</v>
       </c>
       <c r="S11" t="n">
-        <v>6254.354530000001</v>
+        <v>40937103.3537</v>
       </c>
       <c r="T11" t="n">
-        <v>4058.84671</v>
+        <v>6285.020920000001</v>
       </c>
       <c r="U11" t="n">
-        <v>354.47266</v>
+        <v>290.88283</v>
       </c>
       <c r="V11" t="n">
-        <v>350.06477</v>
+        <v>287.0857600000001</v>
       </c>
       <c r="W11" t="n">
-        <v>1118.5614</v>
+        <v>1256.46088</v>
       </c>
       <c r="X11" t="n">
-        <v>531.98478</v>
+        <v>486.6017</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.77088</v>
+        <v>482.13397</v>
       </c>
       <c r="Z11" t="n">
-        <v>730.5035099999999</v>
+        <v>1031.69236</v>
       </c>
       <c r="AA11" t="n">
-        <v>1086.0008</v>
+        <v>1751.30683</v>
       </c>
       <c r="AB11" t="n">
-        <v>525.2105299999999</v>
+        <v>607.3869900000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>556.65795</v>
+        <v>864.3349600000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>561.8824599999999</v>
+        <v>563.2461700000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>2199603.256</v>
+        <v>13724060.91</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -1543,94 +1543,94 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>5497824600</v>
+        <v>9661815600</v>
       </c>
       <c r="C12" t="n">
-        <v>4757328474.3</v>
+        <v>286163437529500</v>
       </c>
       <c r="D12" t="n">
-        <v>9081.5828</v>
+        <v>17083.6938</v>
       </c>
       <c r="E12" t="n">
-        <v>239.173234</v>
+        <v>1046.03811</v>
       </c>
       <c r="F12" t="n">
-        <v>227.968715</v>
+        <v>117.756067</v>
       </c>
       <c r="G12" t="n">
-        <v>64.49476</v>
+        <v>71.56381000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>599.0718400000001</v>
+        <v>460.7185500000001</v>
       </c>
       <c r="I12" t="n">
-        <v>168.29688</v>
+        <v>75.624241</v>
       </c>
       <c r="J12" t="n">
-        <v>1951.5889</v>
+        <v>1586.6291</v>
       </c>
       <c r="K12" t="n">
-        <v>1114.3961</v>
+        <v>1128.7302</v>
       </c>
       <c r="L12" t="n">
-        <v>109.275425</v>
+        <v>1539.494406</v>
       </c>
       <c r="M12" t="n">
-        <v>12980471.21</v>
+        <v>300278563.737</v>
       </c>
       <c r="N12" t="n">
-        <v>2970.5918</v>
+        <v>6480.24074</v>
       </c>
       <c r="O12" t="n">
-        <v>374.957032</v>
+        <v>199.199555</v>
       </c>
       <c r="P12" t="n">
-        <v>12527.79941</v>
+        <v>6520.11304</v>
       </c>
       <c r="Q12" t="n">
-        <v>449.4982</v>
+        <v>498.6552</v>
       </c>
       <c r="R12" t="n">
-        <v>168.759614</v>
+        <v>211.232461</v>
       </c>
       <c r="S12" t="n">
-        <v>6254.354530000001</v>
+        <v>6334.9017</v>
       </c>
       <c r="T12" t="n">
-        <v>4036.69041</v>
+        <v>5957.705559999999</v>
       </c>
       <c r="U12" t="n">
-        <v>332.19866</v>
+        <v>268.812037</v>
       </c>
       <c r="V12" t="n">
-        <v>350.06477</v>
+        <v>282.90913</v>
       </c>
       <c r="W12" t="n">
-        <v>1029.9223</v>
+        <v>1256.43608</v>
       </c>
       <c r="X12" t="n">
-        <v>528.2527299999999</v>
+        <v>484.6090300000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>300.76866</v>
+        <v>474.72965</v>
       </c>
       <c r="Z12" t="n">
-        <v>709.83631</v>
+        <v>1027.59192</v>
       </c>
       <c r="AA12" t="n">
-        <v>1006.62469</v>
+        <v>1710.89733</v>
       </c>
       <c r="AB12" t="n">
-        <v>523.41466</v>
+        <v>604.3486700000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>556.65795</v>
+        <v>855.2386900000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>557.46515</v>
+        <v>563.2461700000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>2132199.346</v>
+        <v>12661287.286</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
@@ -1644,94 +1644,94 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>5497824600</v>
+        <v>8041101200</v>
       </c>
       <c r="C13" t="n">
-        <v>4757328474.3</v>
+        <v>285534770829500</v>
       </c>
       <c r="D13" t="n">
-        <v>8615.683300000001</v>
+        <v>16839.2348</v>
       </c>
       <c r="E13" t="n">
-        <v>239.173234</v>
+        <v>946.0461099999999</v>
       </c>
       <c r="F13" t="n">
-        <v>185.754795</v>
+        <v>107.685557</v>
       </c>
       <c r="G13" t="n">
-        <v>64.19940099999999</v>
+        <v>68.21059300000002</v>
       </c>
       <c r="H13" t="n">
-        <v>572.8099400000001</v>
+        <v>457.17293</v>
       </c>
       <c r="I13" t="n">
-        <v>149.35206</v>
+        <v>75.03095499999999</v>
       </c>
       <c r="J13" t="n">
-        <v>1824.5508</v>
+        <v>1467.911</v>
       </c>
       <c r="K13" t="n">
-        <v>1114.1991</v>
+        <v>1128.7302</v>
       </c>
       <c r="L13" t="n">
-        <v>98.646095</v>
+        <v>1343.701206</v>
       </c>
       <c r="M13" t="n">
-        <v>10999722.97</v>
+        <v>195916653.677</v>
       </c>
       <c r="N13" t="n">
-        <v>2760.7201</v>
+        <v>6415.021940000001</v>
       </c>
       <c r="O13" t="n">
-        <v>343.081782</v>
+        <v>198.966345</v>
       </c>
       <c r="P13" t="n">
-        <v>11558.43621</v>
+        <v>5628.68045</v>
       </c>
       <c r="Q13" t="n">
-        <v>448.93629</v>
+        <v>497.55209</v>
       </c>
       <c r="R13" t="n">
-        <v>125.552892</v>
+        <v>173.788341</v>
       </c>
       <c r="S13" t="n">
-        <v>5684.556030000001</v>
+        <v>5492.2187</v>
       </c>
       <c r="T13" t="n">
-        <v>4027.70787</v>
+        <v>4411.007259999999</v>
       </c>
       <c r="U13" t="n">
-        <v>306.0212</v>
+        <v>264.5962470000001</v>
       </c>
       <c r="V13" t="n">
-        <v>347.81682</v>
+        <v>277.51533</v>
       </c>
       <c r="W13" t="n">
-        <v>1012.4086</v>
+        <v>1256.43608</v>
       </c>
       <c r="X13" t="n">
-        <v>526.45249</v>
+        <v>471.7910800000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>300.76866</v>
+        <v>466.78417</v>
       </c>
       <c r="Z13" t="n">
-        <v>673.6064</v>
+        <v>900.5747100000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>1006.62464</v>
+        <v>1467.09403</v>
       </c>
       <c r="AB13" t="n">
-        <v>520.0241699999999</v>
+        <v>592.5981800000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>556.65795</v>
+        <v>830.15972</v>
       </c>
       <c r="AD13" t="n">
-        <v>483.79327</v>
+        <v>539.93381</v>
       </c>
       <c r="AE13" t="n">
-        <v>1982302.346</v>
+        <v>11709695.715</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -1745,94 +1745,94 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>5476337800</v>
+        <v>7442590600</v>
       </c>
       <c r="C14" t="n">
-        <v>945683238.3</v>
+        <v>20290981359500</v>
       </c>
       <c r="D14" t="n">
-        <v>8576.503499999999</v>
+        <v>16006.1668</v>
       </c>
       <c r="E14" t="n">
-        <v>239.173234</v>
+        <v>725.66786</v>
       </c>
       <c r="F14" t="n">
-        <v>176.112685</v>
+        <v>83.104027</v>
       </c>
       <c r="G14" t="n">
-        <v>63.250494</v>
+        <v>64.62898800000002</v>
       </c>
       <c r="H14" t="n">
-        <v>550.6554600000001</v>
+        <v>420.30268</v>
       </c>
       <c r="I14" t="n">
-        <v>113.329157</v>
+        <v>68.37368499999999</v>
       </c>
       <c r="J14" t="n">
-        <v>1758.1839</v>
+        <v>1342.30744</v>
       </c>
       <c r="K14" t="n">
-        <v>1114.1991</v>
+        <v>1110.15996</v>
       </c>
       <c r="L14" t="n">
-        <v>98.646095</v>
+        <v>925.824806</v>
       </c>
       <c r="M14" t="n">
-        <v>9377842.5</v>
+        <v>103124953.677</v>
       </c>
       <c r="N14" t="n">
-        <v>2625.4717</v>
+        <v>6204.36004</v>
       </c>
       <c r="O14" t="n">
-        <v>243.645961</v>
+        <v>188.927525</v>
       </c>
       <c r="P14" t="n">
-        <v>6356.73211</v>
+        <v>4502.491250000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>422.91697</v>
+        <v>466.3926</v>
       </c>
       <c r="R14" t="n">
-        <v>122.988332</v>
+        <v>144.2495510000001</v>
       </c>
       <c r="S14" t="n">
-        <v>5684.556030000001</v>
+        <v>4981.2501</v>
       </c>
       <c r="T14" t="n">
-        <v>4027.70787</v>
+        <v>4411.007259999999</v>
       </c>
       <c r="U14" t="n">
-        <v>267.21185</v>
+        <v>233.527727</v>
       </c>
       <c r="V14" t="n">
-        <v>298.77004</v>
+        <v>270.1633800000001</v>
       </c>
       <c r="W14" t="n">
-        <v>1006.0109</v>
+        <v>1233.66858</v>
       </c>
       <c r="X14" t="n">
-        <v>509.6661300000001</v>
+        <v>458.26453</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.76866</v>
+        <v>443.79028</v>
       </c>
       <c r="Z14" t="n">
-        <v>672.49491</v>
+        <v>900.5747100000001</v>
       </c>
       <c r="AA14" t="n">
-        <v>1006.62464</v>
+        <v>1397.21843</v>
       </c>
       <c r="AB14" t="n">
-        <v>520.0241699999999</v>
+        <v>572.1567900000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>556.65795</v>
+        <v>830.15972</v>
       </c>
       <c r="AD14" t="n">
-        <v>469.00156</v>
+        <v>507.01051</v>
       </c>
       <c r="AE14" t="n">
-        <v>1968985.296</v>
+        <v>5981943.015</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -1846,94 +1846,94 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>5476337800</v>
+        <v>7228542600</v>
       </c>
       <c r="C15" t="n">
-        <v>745261988.3</v>
+        <v>1253801741500</v>
       </c>
       <c r="D15" t="n">
-        <v>8002.236999999999</v>
+        <v>14931.8288</v>
       </c>
       <c r="E15" t="n">
-        <v>202.235035</v>
+        <v>705.83293</v>
       </c>
       <c r="F15" t="n">
-        <v>164.704035</v>
+        <v>69.282163</v>
       </c>
       <c r="G15" t="n">
-        <v>61.13845100000001</v>
+        <v>60.466613</v>
       </c>
       <c r="H15" t="n">
-        <v>497.49101</v>
+        <v>410.78107</v>
       </c>
       <c r="I15" t="n">
-        <v>87.176655</v>
+        <v>64.38911399999999</v>
       </c>
       <c r="J15" t="n">
-        <v>1616.486</v>
+        <v>1267.12174</v>
       </c>
       <c r="K15" t="n">
-        <v>1071.9807</v>
+        <v>1072.95406</v>
       </c>
       <c r="L15" t="n">
-        <v>98.646095</v>
+        <v>797.9958260000001</v>
       </c>
       <c r="M15" t="n">
-        <v>3067316.9</v>
+        <v>82238359.677</v>
       </c>
       <c r="N15" t="n">
-        <v>2625.4717</v>
+        <v>5488.593040000001</v>
       </c>
       <c r="O15" t="n">
-        <v>222.950097</v>
+        <v>188.227995</v>
       </c>
       <c r="P15" t="n">
-        <v>3791.52341</v>
+        <v>3978.73395</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.62681</v>
+        <v>439.0569100000001</v>
       </c>
       <c r="R15" t="n">
-        <v>93.02754999999999</v>
+        <v>139.186411</v>
       </c>
       <c r="S15" t="n">
-        <v>5279.10213</v>
+        <v>4558.300000000001</v>
       </c>
       <c r="T15" t="n">
-        <v>4016.249770000001</v>
+        <v>3722.500949999999</v>
       </c>
       <c r="U15" t="n">
-        <v>235.61186</v>
+        <v>208.346877</v>
       </c>
       <c r="V15" t="n">
-        <v>275.57869</v>
+        <v>264.1222</v>
       </c>
       <c r="W15" t="n">
-        <v>938.64336</v>
+        <v>1182.30648</v>
       </c>
       <c r="X15" t="n">
-        <v>462.5659699999999</v>
+        <v>451.24866</v>
       </c>
       <c r="Y15" t="n">
-        <v>290.05977</v>
+        <v>429.6627999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>630.8406600000001</v>
+        <v>805.53621</v>
       </c>
       <c r="AA15" t="n">
-        <v>1006.62464</v>
+        <v>1397.21843</v>
       </c>
       <c r="AB15" t="n">
-        <v>502.35233</v>
+        <v>520.2679900000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>556.65795</v>
+        <v>802.6557</v>
       </c>
       <c r="AD15" t="n">
-        <v>416.70415</v>
+        <v>472.9426100000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>1961838.816</v>
+        <v>5310163.715</v>
       </c>
       <c r="AF15" t="n">
         <v>10</v>

--- a/Trabajo/software/results_branch/results_cec2017_10.xlsx
+++ b/Trabajo/software/results_branch/results_cec2017_10.xlsx
@@ -536,31 +536,31 @@
         <v>53236128000</v>
       </c>
       <c r="C2" t="n">
-        <v>1.627714707169e+21</v>
+        <v>3.3714760222614e+20</v>
       </c>
       <c r="D2" t="n">
-        <v>30528086674.377</v>
+        <v>30528083126.79</v>
       </c>
       <c r="E2" t="n">
         <v>18966.8746</v>
       </c>
       <c r="F2" t="n">
-        <v>254.34761</v>
+        <v>254.43055</v>
       </c>
       <c r="G2" t="n">
-        <v>100.321492</v>
+        <v>99.59806500000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1146.88792</v>
+        <v>1136.75866</v>
       </c>
       <c r="I2" t="n">
-        <v>175.7475</v>
+        <v>175.94599</v>
       </c>
       <c r="J2" t="n">
-        <v>5077.407300000001</v>
+        <v>5384.539400000001</v>
       </c>
       <c r="K2" t="n">
-        <v>1721.8539</v>
+        <v>1684.4069</v>
       </c>
       <c r="L2" t="n">
         <v>593154846.3199999</v>
@@ -572,55 +572,55 @@
         <v>7496577500</v>
       </c>
       <c r="O2" t="n">
-        <v>1561808417.7754</v>
+        <v>1561808420.7626</v>
       </c>
       <c r="P2" t="n">
-        <v>5480871371.690001</v>
+        <v>5480871162.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>18035.11248</v>
+        <v>17976.90777</v>
       </c>
       <c r="R2" t="n">
-        <v>108688.01937</v>
+        <v>108628.43788</v>
       </c>
       <c r="S2" t="n">
         <v>13012181280</v>
       </c>
       <c r="T2" t="n">
-        <v>9609925250.309799</v>
+        <v>9608981374.3244</v>
       </c>
       <c r="U2" t="n">
-        <v>643.79778</v>
+        <v>629.0708</v>
       </c>
       <c r="V2" t="n">
-        <v>446.5013200000001</v>
+        <v>429.50081</v>
       </c>
       <c r="W2" t="n">
-        <v>2256.56233</v>
+        <v>2197.49856</v>
       </c>
       <c r="X2" t="n">
-        <v>967.2616399999999</v>
+        <v>961.90095</v>
       </c>
       <c r="Y2" t="n">
-        <v>1140.51354</v>
+        <v>905.8156500000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>6022.114</v>
+        <v>5616.9947</v>
       </c>
       <c r="AA2" t="n">
-        <v>3194.4698</v>
+        <v>3017.0926</v>
       </c>
       <c r="AB2" t="n">
-        <v>2273.72995</v>
+        <v>1987.65059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2427.5118</v>
+        <v>1967.9468</v>
       </c>
       <c r="AD2" t="n">
-        <v>1388279.20023</v>
+        <v>1388217.18024</v>
       </c>
       <c r="AE2" t="n">
-        <v>1819616710</v>
+        <v>1810921110</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -637,91 +637,91 @@
         <v>43148849000</v>
       </c>
       <c r="C3" t="n">
-        <v>1.626838562169e+21</v>
+        <v>3.3714751936605e+20</v>
       </c>
       <c r="D3" t="n">
-        <v>15631774927.768</v>
+        <v>15631769408.744</v>
       </c>
       <c r="E3" t="n">
-        <v>9038.176100000001</v>
+        <v>9001.259900000001</v>
       </c>
       <c r="F3" t="n">
-        <v>254.2326</v>
+        <v>254.3779699999999</v>
       </c>
       <c r="G3" t="n">
-        <v>99.58936200000001</v>
+        <v>98.668221</v>
       </c>
       <c r="H3" t="n">
-        <v>1145.64739</v>
+        <v>1130.64253</v>
       </c>
       <c r="I3" t="n">
-        <v>175.58802</v>
+        <v>175.77024</v>
       </c>
       <c r="J3" t="n">
-        <v>4862.341</v>
+        <v>5118.777800000001</v>
       </c>
       <c r="K3" t="n">
-        <v>1715.8594</v>
+        <v>1678.8651</v>
       </c>
       <c r="L3" t="n">
-        <v>56752224.52</v>
+        <v>56751767.11998</v>
       </c>
       <c r="M3" t="n">
-        <v>4490046642.6</v>
+        <v>4490021300.3</v>
       </c>
       <c r="N3" t="n">
         <v>2370216125.907</v>
       </c>
       <c r="O3" t="n">
-        <v>513689972.6204201</v>
+        <v>513689858.79002</v>
       </c>
       <c r="P3" t="n">
-        <v>534121236.9041001</v>
+        <v>534120986.8552999</v>
       </c>
       <c r="Q3" t="n">
-        <v>2317.23235</v>
+        <v>2238.29956</v>
       </c>
       <c r="R3" t="n">
-        <v>9649.530199999999</v>
+        <v>9588.639149999999</v>
       </c>
       <c r="S3" t="n">
         <v>5670504590</v>
       </c>
       <c r="T3" t="n">
-        <v>2468623921.2588</v>
+        <v>2467657434.1244</v>
       </c>
       <c r="U3" t="n">
-        <v>641.7108099999999</v>
+        <v>625.7124299999999</v>
       </c>
       <c r="V3" t="n">
-        <v>426.01706</v>
+        <v>426.56652</v>
       </c>
       <c r="W3" t="n">
-        <v>2234.24031</v>
+        <v>2103.33886</v>
       </c>
       <c r="X3" t="n">
-        <v>964.5027699999998</v>
+        <v>959.3758800000002</v>
       </c>
       <c r="Y3" t="n">
-        <v>829.06357</v>
+        <v>904.6608600000002</v>
       </c>
       <c r="Z3" t="n">
-        <v>5088.8426</v>
+        <v>5055.034199999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>2963.4808</v>
+        <v>2788.8799</v>
       </c>
       <c r="AB3" t="n">
-        <v>1319.12656</v>
+        <v>1376.3059</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.9569</v>
+        <v>1655.8528</v>
       </c>
       <c r="AD3" t="n">
-        <v>3667.577749999999</v>
+        <v>3610.31929</v>
       </c>
       <c r="AE3" t="n">
-        <v>476381885.2</v>
+        <v>467336374.1</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -738,91 +738,91 @@
         <v>37839496000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.626838562169e+21</v>
+        <v>3.3714751936605e+20</v>
       </c>
       <c r="D4" t="n">
-        <v>1273966954.02</v>
+        <v>1273959095.916</v>
       </c>
       <c r="E4" t="n">
-        <v>6100.688540000001</v>
+        <v>6024.58548</v>
       </c>
       <c r="F4" t="n">
-        <v>254.15977</v>
+        <v>254.2468</v>
       </c>
       <c r="G4" t="n">
-        <v>99.145804</v>
+        <v>98.27863700000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1144.66499</v>
+        <v>1127.61492</v>
       </c>
       <c r="I4" t="n">
-        <v>175.51417</v>
+        <v>175.61136</v>
       </c>
       <c r="J4" t="n">
-        <v>4750.491100000001</v>
+        <v>4958.397500000001</v>
       </c>
       <c r="K4" t="n">
-        <v>1712.6549</v>
+        <v>1678.4296</v>
       </c>
       <c r="L4" t="n">
-        <v>54459987.9927</v>
+        <v>54459786.62266999</v>
       </c>
       <c r="M4" t="n">
-        <v>3538656805.4</v>
+        <v>3538508778.8</v>
       </c>
       <c r="N4" t="n">
         <v>1873991400.5631</v>
       </c>
       <c r="O4" t="n">
-        <v>484111800.15209</v>
+        <v>484111636.46948</v>
       </c>
       <c r="P4" t="n">
-        <v>184989260.6976</v>
+        <v>184988465.5413</v>
       </c>
       <c r="Q4" t="n">
-        <v>1055.69447</v>
+        <v>1018.72893</v>
       </c>
       <c r="R4" t="n">
-        <v>6225.701289999999</v>
+        <v>6153.20192</v>
       </c>
       <c r="S4" t="n">
         <v>4100432170</v>
       </c>
       <c r="T4" t="n">
-        <v>2303679299.7146</v>
+        <v>2302696120.7249</v>
       </c>
       <c r="U4" t="n">
-        <v>640.37981</v>
+        <v>623.96775</v>
       </c>
       <c r="V4" t="n">
-        <v>423.71926</v>
+        <v>426.5079400000001</v>
       </c>
       <c r="W4" t="n">
-        <v>2230.28548</v>
+        <v>2092.62137</v>
       </c>
       <c r="X4" t="n">
-        <v>963.44217</v>
+        <v>954.0646700000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.27935</v>
+        <v>903.1675700000002</v>
       </c>
       <c r="Z4" t="n">
-        <v>4097.098100000001</v>
+        <v>4020.231599999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>2818.7996</v>
+        <v>2785.4897</v>
       </c>
       <c r="AB4" t="n">
-        <v>1287.80254</v>
+        <v>1351.47368</v>
       </c>
       <c r="AC4" t="n">
-        <v>1537.7616</v>
+        <v>1653.9362</v>
       </c>
       <c r="AD4" t="n">
-        <v>3587.50863</v>
+        <v>3511.648250000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>265517212.6</v>
+        <v>256346473.1</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -839,91 +839,91 @@
         <v>33668207000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.108023457624319e+20</v>
+        <v>3.3714751936605e+20</v>
       </c>
       <c r="D5" t="n">
-        <v>1266065356.131</v>
+        <v>1266049674.1065</v>
       </c>
       <c r="E5" t="n">
-        <v>5703.17914</v>
+        <v>5482.406590000001</v>
       </c>
       <c r="F5" t="n">
-        <v>254.13051</v>
+        <v>254.17547</v>
       </c>
       <c r="G5" t="n">
-        <v>98.778402</v>
+        <v>97.93356600000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1144.19889</v>
+        <v>1125.93406</v>
       </c>
       <c r="I5" t="n">
-        <v>175.47955</v>
+        <v>175.52073</v>
       </c>
       <c r="J5" t="n">
-        <v>4661.5322</v>
+        <v>4856.9124</v>
       </c>
       <c r="K5" t="n">
-        <v>1710.4365</v>
+        <v>1676.23</v>
       </c>
       <c r="L5" t="n">
-        <v>9142986.562499998</v>
+        <v>9143252.460469998</v>
       </c>
       <c r="M5" t="n">
-        <v>2745638271.4</v>
+        <v>2745427011</v>
       </c>
       <c r="N5" t="n">
-        <v>381877350.8065</v>
+        <v>381877590.2424999</v>
       </c>
       <c r="O5" t="n">
-        <v>4445135.7797</v>
+        <v>4444869.35398</v>
       </c>
       <c r="P5" t="n">
-        <v>116508264.1766</v>
+        <v>116506220.0258</v>
       </c>
       <c r="Q5" t="n">
-        <v>980.0105100000001</v>
+        <v>958.0715399999999</v>
       </c>
       <c r="R5" t="n">
-        <v>760.92725</v>
+        <v>693.83498</v>
       </c>
       <c r="S5" t="n">
         <v>3926554050</v>
       </c>
       <c r="T5" t="n">
-        <v>539574811.4918001</v>
+        <v>538599658.2407</v>
       </c>
       <c r="U5" t="n">
-        <v>574.4742699999999</v>
+        <v>615.67662</v>
       </c>
       <c r="V5" t="n">
-        <v>420.45302</v>
+        <v>426.4616799999999</v>
       </c>
       <c r="W5" t="n">
-        <v>2226.92335</v>
+        <v>2089.26391</v>
       </c>
       <c r="X5" t="n">
-        <v>962.6855400000001</v>
+        <v>952.60366</v>
       </c>
       <c r="Y5" t="n">
-        <v>703.4286199999999</v>
+        <v>782.2888</v>
       </c>
       <c r="Z5" t="n">
-        <v>3053.1193</v>
+        <v>3210.1885</v>
       </c>
       <c r="AA5" t="n">
-        <v>2621.178</v>
+        <v>2783.3216</v>
       </c>
       <c r="AB5" t="n">
-        <v>1243.56302</v>
+        <v>1162.86012</v>
       </c>
       <c r="AC5" t="n">
-        <v>1226.72448</v>
+        <v>1481.6374</v>
       </c>
       <c r="AD5" t="n">
-        <v>2912.72553</v>
+        <v>2830.58449</v>
       </c>
       <c r="AE5" t="n">
-        <v>165159414.6</v>
+        <v>153272477.1</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
@@ -940,91 +940,91 @@
         <v>21010794700</v>
       </c>
       <c r="C6" t="n">
-        <v>8.998716973243189e+19</v>
+        <v>1.796758279161449e+17</v>
       </c>
       <c r="D6" t="n">
-        <v>39349.195</v>
+        <v>27452.8406</v>
       </c>
       <c r="E6" t="n">
-        <v>2285.91104</v>
+        <v>1947.28815</v>
       </c>
       <c r="F6" t="n">
-        <v>187.635073</v>
+        <v>254.16767</v>
       </c>
       <c r="G6" t="n">
-        <v>91.33134500000001</v>
+        <v>97.23285100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>784.8789899999999</v>
+        <v>1112.01484</v>
       </c>
       <c r="I6" t="n">
-        <v>131.415701</v>
+        <v>175.51536</v>
       </c>
       <c r="J6" t="n">
-        <v>3707.7656</v>
+        <v>4760.201599999999</v>
       </c>
       <c r="K6" t="n">
-        <v>1573.7563</v>
+        <v>1671.611</v>
       </c>
       <c r="L6" t="n">
-        <v>24419.2254</v>
+        <v>24590.96427</v>
       </c>
       <c r="M6" t="n">
-        <v>2558729791.5</v>
+        <v>2558521786.8</v>
       </c>
       <c r="N6" t="n">
-        <v>295404946.3054</v>
+        <v>295407170.5614</v>
       </c>
       <c r="O6" t="n">
-        <v>4649.85432</v>
+        <v>7593.98414</v>
       </c>
       <c r="P6" t="n">
-        <v>57286423.41860001</v>
+        <v>57289223.61750001</v>
       </c>
       <c r="Q6" t="n">
-        <v>830.7022899999999</v>
+        <v>944.6824100000001</v>
       </c>
       <c r="R6" t="n">
-        <v>541.74479</v>
+        <v>547.64234</v>
       </c>
       <c r="S6" t="n">
-        <v>1238197384.657</v>
+        <v>1238197345.154</v>
       </c>
       <c r="T6" t="n">
-        <v>13577679.6688</v>
+        <v>11850992.0273</v>
       </c>
       <c r="U6" t="n">
-        <v>442.8005800000001</v>
+        <v>615.12017</v>
       </c>
       <c r="V6" t="n">
-        <v>338.83447</v>
+        <v>426.4462799999999</v>
       </c>
       <c r="W6" t="n">
-        <v>1736.54698</v>
+        <v>2088.30861</v>
       </c>
       <c r="X6" t="n">
-        <v>790.20443</v>
+        <v>952.42153</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.5228500000001</v>
+        <v>635.5747599999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>2265.08899</v>
+        <v>2298.78288</v>
       </c>
       <c r="AA6" t="n">
-        <v>2444.895</v>
+        <v>2480.62064</v>
       </c>
       <c r="AB6" t="n">
-        <v>944.80891</v>
+        <v>1134.72142</v>
       </c>
       <c r="AC6" t="n">
-        <v>1170.40045</v>
+        <v>1125.31008</v>
       </c>
       <c r="AD6" t="n">
-        <v>1133.05943</v>
+        <v>1159.55603</v>
       </c>
       <c r="AE6" t="n">
-        <v>85933321.2</v>
+        <v>97770704.3</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1041,91 +1041,91 @@
         <v>17052399600</v>
       </c>
       <c r="C7" t="n">
-        <v>4.672890586676796e+17</v>
+        <v>1.84811879041449e+16</v>
       </c>
       <c r="D7" t="n">
-        <v>25876.471</v>
+        <v>15791.895</v>
       </c>
       <c r="E7" t="n">
-        <v>1552.44295</v>
+        <v>1242.51514</v>
       </c>
       <c r="F7" t="n">
-        <v>138.017457</v>
+        <v>254.1548299999999</v>
       </c>
       <c r="G7" t="n">
-        <v>80.911293</v>
+        <v>96.94597400000001</v>
       </c>
       <c r="H7" t="n">
-        <v>655.1317299999998</v>
+        <v>1105.79626</v>
       </c>
       <c r="I7" t="n">
-        <v>104.250476</v>
+        <v>175.50715</v>
       </c>
       <c r="J7" t="n">
-        <v>2776.0978</v>
+        <v>3861.8331</v>
       </c>
       <c r="K7" t="n">
-        <v>1393.8767</v>
+        <v>1587.8164</v>
       </c>
       <c r="L7" t="n">
-        <v>7401.743799999999</v>
+        <v>6420.154960000001</v>
       </c>
       <c r="M7" t="n">
-        <v>1443991525.348</v>
+        <v>1443773339.168</v>
       </c>
       <c r="N7" t="n">
-        <v>48270679.2845</v>
+        <v>48273392.3629</v>
       </c>
       <c r="O7" t="n">
-        <v>1139.645111</v>
+        <v>4275.86254</v>
       </c>
       <c r="P7" t="n">
-        <v>52781.6585</v>
+        <v>74224.78349999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>771.2004000000001</v>
+        <v>933.0669999999998</v>
       </c>
       <c r="R7" t="n">
-        <v>353.108403</v>
+        <v>392.4814</v>
       </c>
       <c r="S7" t="n">
-        <v>280946457.6143</v>
+        <v>280949064.5159</v>
       </c>
       <c r="T7" t="n">
-        <v>1592153.4933</v>
+        <v>223033.65384</v>
       </c>
       <c r="U7" t="n">
-        <v>360.75519</v>
+        <v>614.66548</v>
       </c>
       <c r="V7" t="n">
-        <v>321.0853599999999</v>
+        <v>411.04045</v>
       </c>
       <c r="W7" t="n">
-        <v>1681.08218</v>
+        <v>2088.0195</v>
       </c>
       <c r="X7" t="n">
-        <v>568.0201700000001</v>
+        <v>813.82089</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.07061</v>
+        <v>533.45808</v>
       </c>
       <c r="Z7" t="n">
-        <v>1718.36499</v>
+        <v>1297.83558</v>
       </c>
       <c r="AA7" t="n">
-        <v>2303.161</v>
+        <v>2373.20595</v>
       </c>
       <c r="AB7" t="n">
-        <v>752.9918599999999</v>
+        <v>1100.29639</v>
       </c>
       <c r="AC7" t="n">
-        <v>1038.4935</v>
+        <v>927.5243900000002</v>
       </c>
       <c r="AD7" t="n">
-        <v>787.73073</v>
+        <v>837.02111</v>
       </c>
       <c r="AE7" t="n">
-        <v>63514199.3</v>
+        <v>75351582.40000001</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1142,91 +1142,91 @@
         <v>12212309600</v>
       </c>
       <c r="C8" t="n">
-        <v>1.00844282519795e+16</v>
+        <v>283100605725260</v>
       </c>
       <c r="D8" t="n">
-        <v>22920.534</v>
+        <v>15765.594</v>
       </c>
       <c r="E8" t="n">
-        <v>1157.94498</v>
+        <v>660.8629720000001</v>
       </c>
       <c r="F8" t="n">
-        <v>128.435293</v>
+        <v>254.15041</v>
       </c>
       <c r="G8" t="n">
-        <v>75.98894900000001</v>
+        <v>93.36240000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>590.24325</v>
+        <v>742.22019</v>
       </c>
       <c r="I8" t="n">
-        <v>96.19246799999999</v>
+        <v>175.49961</v>
       </c>
       <c r="J8" t="n">
-        <v>2441.3601</v>
+        <v>2495.224500000001</v>
       </c>
       <c r="K8" t="n">
-        <v>1174.52998</v>
+        <v>1452.6067</v>
       </c>
       <c r="L8" t="n">
-        <v>2958.20609</v>
+        <v>3589.897685000001</v>
       </c>
       <c r="M8" t="n">
-        <v>1228098359.737</v>
+        <v>1228033837.737</v>
       </c>
       <c r="N8" t="n">
-        <v>10116297.4221</v>
+        <v>10118996.4896</v>
       </c>
       <c r="O8" t="n">
-        <v>714.2013210000001</v>
+        <v>1016.165709</v>
       </c>
       <c r="P8" t="n">
-        <v>28802.51922999999</v>
+        <v>46040.98036</v>
       </c>
       <c r="Q8" t="n">
-        <v>598.7242600000002</v>
+        <v>780.29748</v>
       </c>
       <c r="R8" t="n">
-        <v>287.646433</v>
+        <v>343.218782</v>
       </c>
       <c r="S8" t="n">
-        <v>111183161.7167</v>
+        <v>111185591.7176</v>
       </c>
       <c r="T8" t="n">
-        <v>13967.26248</v>
+        <v>222585.47621</v>
       </c>
       <c r="U8" t="n">
-        <v>323.22115</v>
+        <v>457.22189</v>
       </c>
       <c r="V8" t="n">
-        <v>293.39059</v>
+        <v>383.69953</v>
       </c>
       <c r="W8" t="n">
-        <v>1501.56998</v>
+        <v>1844.8822</v>
       </c>
       <c r="X8" t="n">
-        <v>567.9345300000001</v>
+        <v>753.31879</v>
       </c>
       <c r="Y8" t="n">
-        <v>525.6180900000001</v>
+        <v>478.6833</v>
       </c>
       <c r="Z8" t="n">
-        <v>1350.6475</v>
+        <v>1155.88464</v>
       </c>
       <c r="AA8" t="n">
-        <v>1951.20615</v>
+        <v>1979.30572</v>
       </c>
       <c r="AB8" t="n">
-        <v>704.44055</v>
+        <v>650.2811800000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>942.5463399999999</v>
+        <v>909.6532100000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>723.42778</v>
+        <v>834.58217</v>
       </c>
       <c r="AE8" t="n">
-        <v>31262530.9</v>
+        <v>42595428.127</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1243,91 +1243,91 @@
         <v>11620979000</v>
       </c>
       <c r="C9" t="n">
-        <v>2221156388979500</v>
+        <v>249369452325260</v>
       </c>
       <c r="D9" t="n">
-        <v>19279.527</v>
+        <v>13689.098</v>
       </c>
       <c r="E9" t="n">
-        <v>1088.76031</v>
+        <v>557.026953</v>
       </c>
       <c r="F9" t="n">
-        <v>126.512913</v>
+        <v>254.14519</v>
       </c>
       <c r="G9" t="n">
-        <v>75.91629200000003</v>
+        <v>85.24307200000001</v>
       </c>
       <c r="H9" t="n">
-        <v>589.9313999999999</v>
+        <v>740.34245</v>
       </c>
       <c r="I9" t="n">
-        <v>87.266734</v>
+        <v>175.49473</v>
       </c>
       <c r="J9" t="n">
-        <v>1934.0647</v>
+        <v>2381.8389</v>
       </c>
       <c r="K9" t="n">
-        <v>1160.3315</v>
+        <v>1415.3666</v>
       </c>
       <c r="L9" t="n">
-        <v>2854.39147</v>
+        <v>3191.271902</v>
       </c>
       <c r="M9" t="n">
-        <v>788287669.737</v>
+        <v>788221515.197</v>
       </c>
       <c r="N9" t="n">
-        <v>10114698.3171</v>
+        <v>10117835.3496</v>
       </c>
       <c r="O9" t="n">
-        <v>364.807175</v>
+        <v>1013.827509</v>
       </c>
       <c r="P9" t="n">
-        <v>11428.41163</v>
+        <v>27491.83835999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>555.59113</v>
+        <v>744.4630100000001</v>
       </c>
       <c r="R9" t="n">
-        <v>253.708857</v>
+        <v>284.46428</v>
       </c>
       <c r="S9" t="n">
-        <v>54361889.93799999</v>
+        <v>54364263.42499999</v>
       </c>
       <c r="T9" t="n">
-        <v>9113.22948</v>
+        <v>11324.14831</v>
       </c>
       <c r="U9" t="n">
-        <v>320.58702</v>
+        <v>415.17834</v>
       </c>
       <c r="V9" t="n">
-        <v>293.36829</v>
+        <v>360.61621</v>
       </c>
       <c r="W9" t="n">
-        <v>1463.40348</v>
+        <v>1685.21536</v>
       </c>
       <c r="X9" t="n">
-        <v>519.8413</v>
+        <v>670.3518900000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>501.6568599999999</v>
+        <v>478.64406</v>
       </c>
       <c r="Z9" t="n">
-        <v>1254.37155</v>
+        <v>1035.92757</v>
       </c>
       <c r="AA9" t="n">
-        <v>1948.97263</v>
+        <v>1759.31962</v>
       </c>
       <c r="AB9" t="n">
-        <v>653.937</v>
+        <v>638.6456499999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>937.5337400000001</v>
+        <v>811.34024</v>
       </c>
       <c r="AD9" t="n">
-        <v>638.83062</v>
+        <v>678.67682</v>
       </c>
       <c r="AE9" t="n">
-        <v>20158655.21</v>
+        <v>23695205.027</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
@@ -1344,91 +1344,91 @@
         <v>10423341900</v>
       </c>
       <c r="C10" t="n">
-        <v>1234277288979500</v>
+        <v>205186756975260</v>
       </c>
       <c r="D10" t="n">
-        <v>17401.2898</v>
+        <v>13689.098</v>
       </c>
       <c r="E10" t="n">
-        <v>1088.64671</v>
+        <v>556.913353</v>
       </c>
       <c r="F10" t="n">
-        <v>117.758886</v>
+        <v>254.14519</v>
       </c>
       <c r="G10" t="n">
-        <v>73.868559</v>
+        <v>83.774387</v>
       </c>
       <c r="H10" t="n">
-        <v>509.49747</v>
+        <v>705.1084900000001</v>
       </c>
       <c r="I10" t="n">
-        <v>77.429199</v>
+        <v>175.49408</v>
       </c>
       <c r="J10" t="n">
-        <v>1710.1524</v>
+        <v>2235.6537</v>
       </c>
       <c r="K10" t="n">
-        <v>1137.4178</v>
+        <v>1315.41419</v>
       </c>
       <c r="L10" t="n">
-        <v>1831.439956</v>
+        <v>1518.268075</v>
       </c>
       <c r="M10" t="n">
-        <v>487350049.737</v>
+        <v>487283895.1969999</v>
       </c>
       <c r="N10" t="n">
-        <v>10114233.2438</v>
+        <v>10117784.2756</v>
       </c>
       <c r="O10" t="n">
-        <v>242.317135</v>
+        <v>432.6763990000001</v>
       </c>
       <c r="P10" t="n">
-        <v>8983.307129999999</v>
+        <v>14041.86126</v>
       </c>
       <c r="Q10" t="n">
-        <v>553.61611</v>
+        <v>656.03268</v>
       </c>
       <c r="R10" t="n">
-        <v>216.306291</v>
+        <v>273.49764</v>
       </c>
       <c r="S10" t="n">
-        <v>54360628.45409999</v>
+        <v>54361519.11299999</v>
       </c>
       <c r="T10" t="n">
-        <v>8924.24194</v>
+        <v>11020.55427</v>
       </c>
       <c r="U10" t="n">
-        <v>299.4151600000001</v>
+        <v>351.81341</v>
       </c>
       <c r="V10" t="n">
-        <v>293.36829</v>
+        <v>356.06156</v>
       </c>
       <c r="W10" t="n">
-        <v>1341.33598</v>
+        <v>1490.88326</v>
       </c>
       <c r="X10" t="n">
-        <v>519.82911</v>
+        <v>670.32992</v>
       </c>
       <c r="Y10" t="n">
-        <v>488.3236900000001</v>
+        <v>478.6401</v>
       </c>
       <c r="Z10" t="n">
-        <v>1248.31045</v>
+        <v>1019.95007</v>
       </c>
       <c r="AA10" t="n">
-        <v>1769.56823</v>
+        <v>1678.75302</v>
       </c>
       <c r="AB10" t="n">
-        <v>633.94885</v>
+        <v>618.62591</v>
       </c>
       <c r="AC10" t="n">
-        <v>896.24292</v>
+        <v>793.8283399999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>579.86934</v>
+        <v>618.1105</v>
       </c>
       <c r="AE10" t="n">
-        <v>17623915.91</v>
+        <v>18028002.127</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -1445,91 +1445,91 @@
         <v>9728390600</v>
       </c>
       <c r="C11" t="n">
-        <v>554730763669500</v>
+        <v>205186756975260</v>
       </c>
       <c r="D11" t="n">
-        <v>17083.6938</v>
+        <v>13468.0213</v>
       </c>
       <c r="E11" t="n">
-        <v>1046.03811</v>
+        <v>556.913353</v>
       </c>
       <c r="F11" t="n">
-        <v>117.756067</v>
+        <v>254.14519</v>
       </c>
       <c r="G11" t="n">
-        <v>71.57521800000002</v>
+        <v>82.61230700000002</v>
       </c>
       <c r="H11" t="n">
-        <v>502.7744299999999</v>
+        <v>652.4095500000001</v>
       </c>
       <c r="I11" t="n">
-        <v>75.64406399999999</v>
+        <v>175.49368</v>
       </c>
       <c r="J11" t="n">
-        <v>1624.2237</v>
+        <v>2003.9313</v>
       </c>
       <c r="K11" t="n">
-        <v>1137.4178</v>
+        <v>1210.78763</v>
       </c>
       <c r="L11" t="n">
-        <v>1539.494406</v>
+        <v>1358.595155</v>
       </c>
       <c r="M11" t="n">
-        <v>327624113.737</v>
+        <v>327557959.197</v>
       </c>
       <c r="N11" t="n">
-        <v>45774.5138</v>
+        <v>48292.2274</v>
       </c>
       <c r="O11" t="n">
-        <v>237.569995</v>
+        <v>432.6763990000001</v>
       </c>
       <c r="P11" t="n">
-        <v>6546.99663</v>
+        <v>10442.92316</v>
       </c>
       <c r="Q11" t="n">
-        <v>528.65401</v>
+        <v>593.0592400000002</v>
       </c>
       <c r="R11" t="n">
-        <v>212.526871</v>
+        <v>253.93982</v>
       </c>
       <c r="S11" t="n">
-        <v>40937103.3537</v>
+        <v>40937941.42380001</v>
       </c>
       <c r="T11" t="n">
-        <v>6285.020920000001</v>
+        <v>10953.41127</v>
       </c>
       <c r="U11" t="n">
-        <v>290.88283</v>
+        <v>348.84701</v>
       </c>
       <c r="V11" t="n">
-        <v>287.0857600000001</v>
+        <v>354.3348999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>1256.46088</v>
+        <v>1467.03106</v>
       </c>
       <c r="X11" t="n">
-        <v>486.6017</v>
+        <v>653.96923</v>
       </c>
       <c r="Y11" t="n">
-        <v>482.13397</v>
+        <v>469.06547</v>
       </c>
       <c r="Z11" t="n">
-        <v>1031.69236</v>
+        <v>994.7511400000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>1751.30683</v>
+        <v>1601.66832</v>
       </c>
       <c r="AB11" t="n">
-        <v>607.3869900000001</v>
+        <v>618.6248399999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>864.3349600000001</v>
+        <v>747.42657</v>
       </c>
       <c r="AD11" t="n">
-        <v>563.2461700000001</v>
+        <v>616.1290000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>13724060.91</v>
+        <v>11332938.827</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -1546,91 +1546,91 @@
         <v>9661815600</v>
       </c>
       <c r="C12" t="n">
-        <v>286163437529500</v>
+        <v>681141785260</v>
       </c>
       <c r="D12" t="n">
-        <v>17083.6938</v>
+        <v>13468.0213</v>
       </c>
       <c r="E12" t="n">
-        <v>1046.03811</v>
+        <v>556.913353</v>
       </c>
       <c r="F12" t="n">
-        <v>117.756067</v>
+        <v>254.14474</v>
       </c>
       <c r="G12" t="n">
-        <v>71.56381000000002</v>
+        <v>72.94424699999999</v>
       </c>
       <c r="H12" t="n">
-        <v>460.7185500000001</v>
+        <v>630.8005000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>75.624241</v>
+        <v>171.32092</v>
       </c>
       <c r="J12" t="n">
-        <v>1586.6291</v>
+        <v>1966.2988</v>
       </c>
       <c r="K12" t="n">
-        <v>1128.7302</v>
+        <v>1174.25388</v>
       </c>
       <c r="L12" t="n">
-        <v>1539.494406</v>
+        <v>1358.435595</v>
       </c>
       <c r="M12" t="n">
-        <v>300278563.737</v>
+        <v>300212409.197</v>
       </c>
       <c r="N12" t="n">
-        <v>6480.24074</v>
+        <v>11013.4534</v>
       </c>
       <c r="O12" t="n">
-        <v>199.199555</v>
+        <v>354.450399</v>
       </c>
       <c r="P12" t="n">
-        <v>6520.11304</v>
+        <v>9905.937170000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>498.6552</v>
+        <v>574.6757700000001</v>
       </c>
       <c r="R12" t="n">
-        <v>211.232461</v>
+        <v>253.33858</v>
       </c>
       <c r="S12" t="n">
-        <v>6334.9017</v>
+        <v>5560.175</v>
       </c>
       <c r="T12" t="n">
-        <v>5957.705559999999</v>
+        <v>10495.31817</v>
       </c>
       <c r="U12" t="n">
-        <v>268.812037</v>
+        <v>291.26382</v>
       </c>
       <c r="V12" t="n">
-        <v>282.90913</v>
+        <v>354.33218</v>
       </c>
       <c r="W12" t="n">
-        <v>1256.43608</v>
+        <v>1465.30416</v>
       </c>
       <c r="X12" t="n">
-        <v>484.6090300000001</v>
+        <v>647.54294</v>
       </c>
       <c r="Y12" t="n">
-        <v>474.72965</v>
+        <v>439.11191</v>
       </c>
       <c r="Z12" t="n">
-        <v>1027.59192</v>
+        <v>885.1231700000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>1710.89733</v>
+        <v>1601.03902</v>
       </c>
       <c r="AB12" t="n">
-        <v>604.3486700000001</v>
+        <v>600.5313600000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>855.2386900000001</v>
+        <v>747.42657</v>
       </c>
       <c r="AD12" t="n">
-        <v>563.2461700000001</v>
+        <v>577.09827</v>
       </c>
       <c r="AE12" t="n">
-        <v>12661287.286</v>
+        <v>11250245.627</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
@@ -1647,91 +1647,91 @@
         <v>8041101200</v>
       </c>
       <c r="C13" t="n">
-        <v>285534770829500</v>
+        <v>681141785260</v>
       </c>
       <c r="D13" t="n">
-        <v>16839.2348</v>
+        <v>13468.0213</v>
       </c>
       <c r="E13" t="n">
-        <v>946.0461099999999</v>
+        <v>499.1995530000001</v>
       </c>
       <c r="F13" t="n">
-        <v>107.685557</v>
+        <v>209.7811</v>
       </c>
       <c r="G13" t="n">
-        <v>68.21059300000002</v>
+        <v>68.619466</v>
       </c>
       <c r="H13" t="n">
-        <v>457.17293</v>
+        <v>588.83601</v>
       </c>
       <c r="I13" t="n">
-        <v>75.03095499999999</v>
+        <v>147.885443</v>
       </c>
       <c r="J13" t="n">
-        <v>1467.911</v>
+        <v>1847.4474</v>
       </c>
       <c r="K13" t="n">
-        <v>1128.7302</v>
+        <v>1055.409</v>
       </c>
       <c r="L13" t="n">
-        <v>1343.701206</v>
+        <v>1224.064665</v>
       </c>
       <c r="M13" t="n">
-        <v>195916653.677</v>
+        <v>195850499.137</v>
       </c>
       <c r="N13" t="n">
-        <v>6415.021940000001</v>
+        <v>11013.4534</v>
       </c>
       <c r="O13" t="n">
-        <v>198.966345</v>
+        <v>178.294559</v>
       </c>
       <c r="P13" t="n">
-        <v>5628.68045</v>
+        <v>8632.09583</v>
       </c>
       <c r="Q13" t="n">
-        <v>497.55209</v>
+        <v>531.1426100000001</v>
       </c>
       <c r="R13" t="n">
-        <v>173.788341</v>
+        <v>239.3747</v>
       </c>
       <c r="S13" t="n">
-        <v>5492.2187</v>
+        <v>4633.3333</v>
       </c>
       <c r="T13" t="n">
-        <v>4411.007259999999</v>
+        <v>7449.103560000001</v>
       </c>
       <c r="U13" t="n">
-        <v>264.5962470000001</v>
+        <v>288.73882</v>
       </c>
       <c r="V13" t="n">
-        <v>277.51533</v>
+        <v>338.79123</v>
       </c>
       <c r="W13" t="n">
-        <v>1256.43608</v>
+        <v>1436.15316</v>
       </c>
       <c r="X13" t="n">
-        <v>471.7910800000001</v>
+        <v>577.5439800000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>466.78417</v>
+        <v>439.11179</v>
       </c>
       <c r="Z13" t="n">
-        <v>900.5747100000001</v>
+        <v>885.1231700000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>1467.09403</v>
+        <v>1546.53392</v>
       </c>
       <c r="AB13" t="n">
-        <v>592.5981800000001</v>
+        <v>592.07508</v>
       </c>
       <c r="AC13" t="n">
-        <v>830.15972</v>
+        <v>666.8517800000002</v>
       </c>
       <c r="AD13" t="n">
-        <v>539.93381</v>
+        <v>541.2752899999999</v>
       </c>
       <c r="AE13" t="n">
-        <v>11709695.715</v>
+        <v>10048515.327</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -1748,91 +1748,91 @@
         <v>7442590600</v>
       </c>
       <c r="C14" t="n">
-        <v>20290981359500</v>
+        <v>681141785260</v>
       </c>
       <c r="D14" t="n">
-        <v>16006.1668</v>
+        <v>11654.4848</v>
       </c>
       <c r="E14" t="n">
-        <v>725.66786</v>
+        <v>344.180383</v>
       </c>
       <c r="F14" t="n">
-        <v>83.104027</v>
+        <v>174.277349</v>
       </c>
       <c r="G14" t="n">
-        <v>64.62898800000002</v>
+        <v>68.58601400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>420.30268</v>
+        <v>548.2888599999999</v>
       </c>
       <c r="I14" t="n">
-        <v>68.37368499999999</v>
+        <v>139.422601</v>
       </c>
       <c r="J14" t="n">
-        <v>1342.30744</v>
+        <v>1681.1954</v>
       </c>
       <c r="K14" t="n">
-        <v>1110.15996</v>
+        <v>973.6490700000001</v>
       </c>
       <c r="L14" t="n">
-        <v>925.824806</v>
+        <v>612.3751749999999</v>
       </c>
       <c r="M14" t="n">
-        <v>103124953.677</v>
+        <v>103058799.137</v>
       </c>
       <c r="N14" t="n">
-        <v>6204.36004</v>
+        <v>10855.1025</v>
       </c>
       <c r="O14" t="n">
-        <v>188.927525</v>
+        <v>171.820081</v>
       </c>
       <c r="P14" t="n">
-        <v>4502.491250000001</v>
+        <v>6074.038630000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>466.3926</v>
+        <v>487.8916499999999</v>
       </c>
       <c r="R14" t="n">
-        <v>144.2495510000001</v>
+        <v>223.7988570000001</v>
       </c>
       <c r="S14" t="n">
-        <v>4981.2501</v>
+        <v>3735.3854</v>
       </c>
       <c r="T14" t="n">
-        <v>4411.007259999999</v>
+        <v>6155.785160000001</v>
       </c>
       <c r="U14" t="n">
-        <v>233.527727</v>
+        <v>284.28974</v>
       </c>
       <c r="V14" t="n">
-        <v>270.1633800000001</v>
+        <v>301.19747</v>
       </c>
       <c r="W14" t="n">
-        <v>1233.66858</v>
+        <v>1378.74246</v>
       </c>
       <c r="X14" t="n">
-        <v>458.26453</v>
+        <v>540.73811</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.79028</v>
+        <v>418.09363</v>
       </c>
       <c r="Z14" t="n">
-        <v>900.5747100000001</v>
+        <v>872.5960699999999</v>
       </c>
       <c r="AA14" t="n">
-        <v>1397.21843</v>
+        <v>1451.96663</v>
       </c>
       <c r="AB14" t="n">
-        <v>572.1567900000001</v>
+        <v>557.64905</v>
       </c>
       <c r="AC14" t="n">
-        <v>830.15972</v>
+        <v>661.2230800000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>507.01051</v>
+        <v>526.4132</v>
       </c>
       <c r="AE14" t="n">
-        <v>5981943.015</v>
+        <v>4271172.137</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -1849,91 +1849,91 @@
         <v>7228542600</v>
       </c>
       <c r="C15" t="n">
-        <v>1253801741500</v>
+        <v>127836377946</v>
       </c>
       <c r="D15" t="n">
-        <v>14931.8288</v>
+        <v>10260.2478</v>
       </c>
       <c r="E15" t="n">
-        <v>705.83293</v>
+        <v>344.180383</v>
       </c>
       <c r="F15" t="n">
-        <v>69.282163</v>
+        <v>117.858539</v>
       </c>
       <c r="G15" t="n">
-        <v>60.466613</v>
+        <v>66.853517</v>
       </c>
       <c r="H15" t="n">
-        <v>410.78107</v>
+        <v>510.8297899999999</v>
       </c>
       <c r="I15" t="n">
-        <v>64.38911399999999</v>
+        <v>121.271979</v>
       </c>
       <c r="J15" t="n">
-        <v>1267.12174</v>
+        <v>1598.4183</v>
       </c>
       <c r="K15" t="n">
-        <v>1072.95406</v>
+        <v>927.3903400000002</v>
       </c>
       <c r="L15" t="n">
-        <v>797.9958260000001</v>
+        <v>491.4590749999999</v>
       </c>
       <c r="M15" t="n">
-        <v>82238359.677</v>
+        <v>82172205.13699999</v>
       </c>
       <c r="N15" t="n">
-        <v>5488.593040000001</v>
+        <v>8596.4746</v>
       </c>
       <c r="O15" t="n">
-        <v>188.227995</v>
+        <v>152.204531</v>
       </c>
       <c r="P15" t="n">
-        <v>3978.73395</v>
+        <v>4323.02753</v>
       </c>
       <c r="Q15" t="n">
-        <v>439.0569100000001</v>
+        <v>474.1287399999999</v>
       </c>
       <c r="R15" t="n">
-        <v>139.186411</v>
+        <v>130.203457</v>
       </c>
       <c r="S15" t="n">
-        <v>4558.300000000001</v>
+        <v>3713.7039</v>
       </c>
       <c r="T15" t="n">
-        <v>3722.500949999999</v>
+        <v>4044.47962</v>
       </c>
       <c r="U15" t="n">
-        <v>208.346877</v>
+        <v>244.75483</v>
       </c>
       <c r="V15" t="n">
-        <v>264.1222</v>
+        <v>251.45151</v>
       </c>
       <c r="W15" t="n">
-        <v>1182.30648</v>
+        <v>1175.86616</v>
       </c>
       <c r="X15" t="n">
-        <v>451.24866</v>
+        <v>491.98218</v>
       </c>
       <c r="Y15" t="n">
-        <v>429.6627999999999</v>
+        <v>388.93089</v>
       </c>
       <c r="Z15" t="n">
-        <v>805.53621</v>
+        <v>867.2931700000001</v>
       </c>
       <c r="AA15" t="n">
-        <v>1397.21843</v>
+        <v>1338.37435</v>
       </c>
       <c r="AB15" t="n">
-        <v>520.2679900000001</v>
+        <v>504.6466600000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>802.6557</v>
+        <v>661.2230800000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>472.9426100000001</v>
+        <v>491.3977199999999</v>
       </c>
       <c r="AE15" t="n">
-        <v>5310163.715</v>
+        <v>4232030.437000001</v>
       </c>
       <c r="AF15" t="n">
         <v>10</v>
